--- a/output/damage/PHL_osm_fl_historical_damage_2.xlsx
+++ b/output/damage/PHL_osm_fl_historical_damage_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1123.912299302313</v>
+        <v>98.33811165815069</v>
       </c>
       <c r="F2" t="n">
-        <v>842.9342244767347</v>
+        <v>73.75358374361302</v>
       </c>
       <c r="G2" t="n">
-        <v>1404.890374127891</v>
+        <v>122.9226395726884</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>power_tower</t>
-        </is>
-      </c>
       <c r="E3" t="n">
-        <v>15668.81013624849</v>
+        <v>320.7665186470742</v>
       </c>
       <c r="F3" t="n">
-        <v>11751.60760218636</v>
+        <v>240.5748889853056</v>
       </c>
       <c r="G3" t="n">
-        <v>19586.01267031061</v>
+        <v>400.9581483088428</v>
       </c>
     </row>
     <row r="4">
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1123.912299302313</v>
+        <v>6.586928868411056</v>
       </c>
       <c r="F4" t="n">
-        <v>842.9342244767347</v>
+        <v>4.940196651308293</v>
       </c>
       <c r="G4" t="n">
-        <v>1404.890374127891</v>
+        <v>8.233661085513818</v>
       </c>
     </row>
     <row r="5">
@@ -558,27 +558,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19860.1683348185</v>
+        <v>8.57175421691081</v>
       </c>
       <c r="F5" t="n">
-        <v>14895.12625111388</v>
+        <v>6.428815662683109</v>
       </c>
       <c r="G5" t="n">
-        <v>24825.21041852313</v>
+        <v>10.71469277113852</v>
       </c>
     </row>
     <row r="6">
@@ -587,12 +587,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1123.912299302313</v>
+        <v>11.39760725545284</v>
       </c>
       <c r="F6" t="n">
-        <v>842.9342244767347</v>
+        <v>8.548205441589628</v>
       </c>
       <c r="G6" t="n">
-        <v>1404.890374127891</v>
+        <v>14.24700906931605</v>
       </c>
     </row>
     <row r="7">
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27283.02261829502</v>
+        <v>6.907640760880509</v>
       </c>
       <c r="F7" t="n">
-        <v>20462.26696372126</v>
+        <v>5.180730570660382</v>
       </c>
       <c r="G7" t="n">
-        <v>34103.77827286877</v>
+        <v>8.634550951100636</v>
       </c>
     </row>
     <row r="8">
@@ -645,27 +645,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5884.454588376281</v>
+        <v>124.4357645023496</v>
       </c>
       <c r="F8" t="n">
-        <v>4413.34094128221</v>
+        <v>93.32682337676222</v>
       </c>
       <c r="G8" t="n">
-        <v>7355.568235470351</v>
+        <v>155.544705627937</v>
       </c>
     </row>
     <row r="9">
@@ -674,27 +674,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>power_tower</t>
-        </is>
-      </c>
       <c r="E9" t="n">
-        <v>41688.20001199596</v>
+        <v>405.8937710067117</v>
       </c>
       <c r="F9" t="n">
-        <v>31266.15000899697</v>
+        <v>304.4203282550337</v>
       </c>
       <c r="G9" t="n">
-        <v>52110.25001499495</v>
+        <v>507.3672137583897</v>
       </c>
     </row>
     <row r="10">
@@ -703,12 +703,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14371.57038959821</v>
+        <v>6.586928868411056</v>
       </c>
       <c r="F10" t="n">
-        <v>10778.67779219865</v>
+        <v>4.940196651308293</v>
       </c>
       <c r="G10" t="n">
-        <v>17964.46298699776</v>
+        <v>8.233661085513818</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +732,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>61027.70967076286</v>
+        <v>8.57175421691081</v>
       </c>
       <c r="F11" t="n">
-        <v>45770.78225307215</v>
+        <v>6.428815662683109</v>
       </c>
       <c r="G11" t="n">
-        <v>76284.63708845357</v>
+        <v>10.71469277113852</v>
       </c>
     </row>
     <row r="12">
@@ -761,12 +761,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18364.83420422786</v>
+        <v>11.39760725545284</v>
       </c>
       <c r="F12" t="n">
-        <v>13773.62565317089</v>
+        <v>8.548205441589628</v>
       </c>
       <c r="G12" t="n">
-        <v>22956.04275528482</v>
+        <v>14.24700906931605</v>
       </c>
     </row>
     <row r="13">
@@ -790,27 +790,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>75297.62406007717</v>
+        <v>6.907640760880509</v>
       </c>
       <c r="F13" t="n">
-        <v>56473.21804505788</v>
+        <v>5.180730570660382</v>
       </c>
       <c r="G13" t="n">
-        <v>94122.03007509647</v>
+        <v>8.634550951100636</v>
       </c>
     </row>
     <row r="14">
@@ -819,27 +819,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24740.6031054399</v>
+        <v>171.2774547644759</v>
       </c>
       <c r="F14" t="n">
-        <v>18555.45232907992</v>
+        <v>128.4580910733569</v>
       </c>
       <c r="G14" t="n">
-        <v>30925.75388179988</v>
+        <v>214.0968184555949</v>
       </c>
     </row>
     <row r="15">
@@ -848,27 +848,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>power_tower</t>
-        </is>
-      </c>
       <c r="E15" t="n">
-        <v>104110.7643208778</v>
+        <v>558.6854573587797</v>
       </c>
       <c r="F15" t="n">
-        <v>78083.07324065836</v>
+        <v>419.0140930190847</v>
       </c>
       <c r="G15" t="n">
-        <v>130138.4554010973</v>
+        <v>698.3568216984747</v>
       </c>
     </row>
     <row r="16">
@@ -877,12 +877,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38478.03835848962</v>
+        <v>6.586928868411056</v>
       </c>
       <c r="F16" t="n">
-        <v>28858.52876886721</v>
+        <v>4.940196651308293</v>
       </c>
       <c r="G16" t="n">
-        <v>48097.54794811202</v>
+        <v>8.233661085513818</v>
       </c>
     </row>
     <row r="17">
@@ -906,27 +906,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>208684.4076439104</v>
+        <v>8.57175421691081</v>
       </c>
       <c r="F17" t="n">
-        <v>156513.3057329328</v>
+        <v>6.428815662683109</v>
       </c>
       <c r="G17" t="n">
-        <v>260855.509554888</v>
+        <v>10.71469277113852</v>
       </c>
     </row>
     <row r="18">
@@ -935,12 +935,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F4_1_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>49725.58104101604</v>
+        <v>11.39760725545284</v>
       </c>
       <c r="F18" t="n">
-        <v>37294.18578076202</v>
+        <v>8.548205441589628</v>
       </c>
       <c r="G18" t="n">
-        <v>62156.97630127004</v>
+        <v>14.24700906931605</v>
       </c>
     </row>
     <row r="19">
@@ -964,27 +964,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>F4_1_4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>power_tower</t>
+          <t>power_pole</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>272056.3556569422</v>
+        <v>6.907640760880509</v>
       </c>
       <c r="F19" t="n">
-        <v>204042.2667427066</v>
+        <v>5.180730570660382</v>
       </c>
       <c r="G19" t="n">
-        <v>340070.4445711777</v>
+        <v>8.634550951100636</v>
       </c>
     </row>
     <row r="20">
@@ -993,27 +993,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rp1000</t>
+          <t>rp0010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>F3_1_1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>power_pole</t>
+          <t>power_tower</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>70076.73813490555</v>
+        <v>241.6813255603789</v>
       </c>
       <c r="F20" t="n">
-        <v>52557.55360117916</v>
+        <v>181.2609941702842</v>
       </c>
       <c r="G20" t="n">
-        <v>87595.92266863195</v>
+        <v>302.1016569504736</v>
       </c>
     </row>
     <row r="21">
@@ -1022,27 +1022,1187 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>788.3340051464921</v>
+      </c>
+      <c r="F21" t="n">
+        <v>591.2505038598689</v>
+      </c>
+      <c r="G21" t="n">
+        <v>985.4175064331152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>30.60024674882027</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22.9501850616152</v>
+      </c>
+      <c r="G22" t="n">
+        <v>38.25030843602533</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>39.82095440040553</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.86571580030415</v>
+      </c>
+      <c r="G23" t="n">
+        <v>49.77619300050692</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>52.9487415653744</v>
+      </c>
+      <c r="F24" t="n">
+        <v>39.7115561740308</v>
+      </c>
+      <c r="G24" t="n">
+        <v>66.18592695671799</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32.09014640325722</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24.06760980244291</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40.11268300407151</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>349.7101731116716</v>
+      </c>
+      <c r="F26" t="n">
+        <v>262.2826298337537</v>
+      </c>
+      <c r="G26" t="n">
+        <v>437.1377163895895</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1140.710482162273</v>
+      </c>
+      <c r="F27" t="n">
+        <v>855.5328616217048</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1425.888102702842</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>68.29355079972828</v>
+      </c>
+      <c r="F28" t="n">
+        <v>51.22016309979622</v>
+      </c>
+      <c r="G28" t="n">
+        <v>85.36693849966034</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>88.87230206215915</v>
+      </c>
+      <c r="F29" t="n">
+        <v>66.65422654661937</v>
+      </c>
+      <c r="G29" t="n">
+        <v>111.090377577699</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>118.1708631815523</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.62814738616423</v>
+      </c>
+      <c r="G30" t="n">
+        <v>147.7135789769404</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>71.61870495851656</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53.71402871888742</v>
+      </c>
+      <c r="G31" t="n">
+        <v>89.52338119814569</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>422.8213209736333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>317.115990730225</v>
+      </c>
+      <c r="G32" t="n">
+        <v>528.5266512170416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1379.189826320283</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1034.392369740212</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1723.987282900354</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>87.68079854504279</v>
+      </c>
+      <c r="F34" t="n">
+        <v>65.7605989087821</v>
+      </c>
+      <c r="G34" t="n">
+        <v>109.6009981813035</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>114.1014681781251</v>
+      </c>
+      <c r="F35" t="n">
+        <v>85.57610113359385</v>
+      </c>
+      <c r="G35" t="n">
+        <v>142.6268352226564</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>151.7173368082763</v>
+      </c>
+      <c r="F36" t="n">
+        <v>113.7880026062072</v>
+      </c>
+      <c r="G36" t="n">
+        <v>189.6466710103454</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>91.94990109592504</v>
+      </c>
+      <c r="F37" t="n">
+        <v>68.96242582194377</v>
+      </c>
+      <c r="G37" t="n">
+        <v>114.9373763699063</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>571.7778308038048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>428.8333731028536</v>
+      </c>
+      <c r="G38" t="n">
+        <v>714.7222885047561</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1865.067176234624</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1398.800382175968</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2331.33397029328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>121.162873039348</v>
+      </c>
+      <c r="F40" t="n">
+        <v>90.87215477951102</v>
+      </c>
+      <c r="G40" t="n">
+        <v>151.453591299185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>157.6726253852189</v>
+      </c>
+      <c r="F41" t="n">
+        <v>118.2544690389142</v>
+      </c>
+      <c r="G41" t="n">
+        <v>197.0907817315237</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>209.6526117759505</v>
+      </c>
+      <c r="F42" t="n">
+        <v>157.2394588319628</v>
+      </c>
+      <c r="G42" t="n">
+        <v>262.0657647199381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>127.0621889551215</v>
+      </c>
+      <c r="F43" t="n">
+        <v>95.29664171634113</v>
+      </c>
+      <c r="G43" t="n">
+        <v>158.8277361939019</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1107.008724301118</v>
+      </c>
+      <c r="F44" t="n">
+        <v>830.2565432258384</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1383.760905376397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3610.922851970148</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2708.19213897761</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4513.653564962686</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>189.1638865013317</v>
+      </c>
+      <c r="F46" t="n">
+        <v>141.8729148759988</v>
+      </c>
+      <c r="G46" t="n">
+        <v>236.4548581266646</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>246.1642404521926</v>
+      </c>
+      <c r="F47" t="n">
+        <v>184.6231803391445</v>
+      </c>
+      <c r="G47" t="n">
+        <v>307.7053005652407</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>327.3172867551133</v>
+      </c>
+      <c r="F48" t="n">
+        <v>245.4879650663349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>409.1466084438916</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>198.3741131849172</v>
+      </c>
+      <c r="F49" t="n">
+        <v>148.7805848886879</v>
+      </c>
+      <c r="G49" t="n">
+        <v>247.9676414811464</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1400.709095705363</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1050.531821779022</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1750.886369631703</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>power_tower</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4568.936424451472</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3426.702318338603</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5711.17053056434</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>242.9294253669152</v>
+      </c>
+      <c r="F52" t="n">
+        <v>182.1970690251864</v>
+      </c>
+      <c r="G52" t="n">
+        <v>303.6617817086438</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>316.1308354621551</v>
+      </c>
+      <c r="F53" t="n">
+        <v>237.0981265966163</v>
+      </c>
+      <c r="G53" t="n">
+        <v>395.163544327694</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>420.3497922079206</v>
+      </c>
+      <c r="F54" t="n">
+        <v>315.2623441559404</v>
+      </c>
+      <c r="G54" t="n">
+        <v>525.4372402599007</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>254.7574498229822</v>
+      </c>
+      <c r="F55" t="n">
+        <v>191.0680873672366</v>
+      </c>
+      <c r="G55" t="n">
+        <v>318.4468122787277</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>rp1000</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F3_1_1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E56" t="n">
+        <v>1857.386215745502</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1393.039661809126</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2321.732769681877</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F3_1_2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>power_tower</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>365402.6244298939</v>
-      </c>
-      <c r="F21" t="n">
-        <v>274051.9683224204</v>
-      </c>
-      <c r="G21" t="n">
-        <v>456753.2805373674</v>
+      <c r="E57" t="n">
+        <v>6058.559597715914</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4543.919698286933</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7573.199497144893</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F4_1_1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>331.3204372464123</v>
+      </c>
+      <c r="F58" t="n">
+        <v>248.4903279348093</v>
+      </c>
+      <c r="G58" t="n">
+        <v>414.1505465580153</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>F4_1_2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>431.1565240571289</v>
+      </c>
+      <c r="F59" t="n">
+        <v>323.3673930428467</v>
+      </c>
+      <c r="G59" t="n">
+        <v>538.9456550714112</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F4_1_3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>573.2960374825561</v>
+      </c>
+      <c r="F60" t="n">
+        <v>429.9720281119171</v>
+      </c>
+      <c r="G60" t="n">
+        <v>716.6200468531952</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F4_1_4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>power_pole</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>347.452143928822</v>
+      </c>
+      <c r="F61" t="n">
+        <v>260.5891079466164</v>
+      </c>
+      <c r="G61" t="n">
+        <v>434.3151799110274</v>
       </c>
     </row>
   </sheetData>
